--- a/Assignments/Excel/dataset for assignment of excel.xlsx
+++ b/Assignments/Excel/dataset for assignment of excel.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saura\OneDrive\Desktop\Summer Inter\Assignment\Assignment 1 (Excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36A68E-FDBD-403E-8F16-A8726AFB95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99379BA6-B0E1-435C-8942-59E7517B170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -785,6 +789,18 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Sum of Sales</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1019,6 +1035,14 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,6 +1732,527 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dataset for assignment of excel.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$A$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Sales</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Sales</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Sales</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Sales</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>260343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>324020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>276590</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>254879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160890</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>254509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>289699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131507</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B749-482E-9792-311DC286DE69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="249523519"/>
+        <c:axId val="249524351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="249523519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249524351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249524351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249523519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1749,6 +2294,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2863,6 +3448,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2938,6 +4026,1647 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E6FFCB-4744-4E2E-A3E8-ECD19F991AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="saurabh negi" refreshedDate="45590.564906944448" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="201" xr:uid="{077850CF-CAEE-45CF-ABD4-6F31B91F829E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:I1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="IT"/>
+        <s v="Sales"/>
+        <s v="HR"/>
+        <s v="Finance"/>
+        <s v="Marketing"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salary" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30111" maxValue="79873"/>
+    </cacheField>
+    <cacheField name="Joining Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2014-07-23T00:00:00" maxDate="2024-07-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10263" maxValue="39772"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="North"/>
+        <s v="West"/>
+        <s v="South"/>
+        <s v="East"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="201">
+  <r>
+    <x v="0"/>
+    <n v="70986"/>
+    <d v="2021-06-07T00:00:00"/>
+    <n v="13394"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="63849"/>
+    <d v="2022-01-05T00:00:00"/>
+    <n v="28070"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="52537"/>
+    <d v="2021-08-10T00:00:00"/>
+    <n v="38327"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="77358"/>
+    <d v="2018-10-12T00:00:00"/>
+    <n v="20413"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="70572"/>
+    <d v="2020-04-24T00:00:00"/>
+    <n v="31025"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="67081"/>
+    <d v="2016-04-05T00:00:00"/>
+    <n v="12096"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="53813"/>
+    <d v="2022-05-13T00:00:00"/>
+    <n v="39507"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54706"/>
+    <d v="2021-01-20T00:00:00"/>
+    <n v="16865"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="76304"/>
+    <d v="2016-08-15T00:00:00"/>
+    <n v="22260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="44181"/>
+    <d v="2022-05-09T00:00:00"/>
+    <n v="19002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="47225"/>
+    <d v="2020-08-21T00:00:00"/>
+    <n v="39772"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43769"/>
+    <d v="2022-08-27T00:00:00"/>
+    <n v="25897"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="77634"/>
+    <d v="2019-07-04T00:00:00"/>
+    <n v="22359"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="46025"/>
+    <d v="2015-01-10T00:00:00"/>
+    <n v="14774"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="72009"/>
+    <d v="2016-10-25T00:00:00"/>
+    <n v="36836"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="62745"/>
+    <d v="2017-02-28T00:00:00"/>
+    <n v="36474"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="39959"/>
+    <d v="2022-09-18T00:00:00"/>
+    <n v="22654"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="50794"/>
+    <d v="2021-10-10T00:00:00"/>
+    <n v="24487"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="65152"/>
+    <d v="2021-05-20T00:00:00"/>
+    <n v="33987"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="46252"/>
+    <d v="2021-07-17T00:00:00"/>
+    <n v="34241"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31929"/>
+    <d v="2017-01-14T00:00:00"/>
+    <n v="34366"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="77413"/>
+    <d v="2017-07-21T00:00:00"/>
+    <n v="16964"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="75052"/>
+    <d v="2020-04-21T00:00:00"/>
+    <n v="28846"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="54329"/>
+    <d v="2019-11-27T00:00:00"/>
+    <n v="33529"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="70350"/>
+    <d v="2016-02-12T00:00:00"/>
+    <n v="38067"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="46435"/>
+    <d v="2024-01-29T00:00:00"/>
+    <n v="39585"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="76884"/>
+    <d v="2020-01-10T00:00:00"/>
+    <n v="11271"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="44789"/>
+    <d v="2023-04-01T00:00:00"/>
+    <n v="22170"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="79873"/>
+    <d v="2018-12-24T00:00:00"/>
+    <n v="20391"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="58256"/>
+    <d v="2021-08-30T00:00:00"/>
+    <n v="20553"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="61420"/>
+    <d v="2019-11-04T00:00:00"/>
+    <n v="10664"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="65570"/>
+    <d v="2023-06-26T00:00:00"/>
+    <n v="21285"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="60577"/>
+    <d v="2015-11-24T00:00:00"/>
+    <n v="11672"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63927"/>
+    <d v="2021-03-20T00:00:00"/>
+    <n v="24967"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="39949"/>
+    <d v="2024-04-17T00:00:00"/>
+    <n v="11978"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40376"/>
+    <d v="2016-01-16T00:00:00"/>
+    <n v="31174"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="64073"/>
+    <d v="2023-07-13T00:00:00"/>
+    <n v="38678"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="71550"/>
+    <d v="2021-01-07T00:00:00"/>
+    <n v="31994"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="45787"/>
+    <d v="2024-02-20T00:00:00"/>
+    <n v="14870"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="76412"/>
+    <d v="2023-02-14T00:00:00"/>
+    <n v="21302"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="51394"/>
+    <d v="2024-06-29T00:00:00"/>
+    <n v="30546"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41457"/>
+    <d v="2015-08-15T00:00:00"/>
+    <n v="22139"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="67040"/>
+    <d v="2017-03-30T00:00:00"/>
+    <n v="11264"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="55132"/>
+    <d v="2019-10-18T00:00:00"/>
+    <n v="11878"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58404"/>
+    <d v="2020-10-05T00:00:00"/>
+    <n v="20523"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="45721"/>
+    <d v="2015-12-02T00:00:00"/>
+    <n v="10765"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="49526"/>
+    <d v="2016-04-08T00:00:00"/>
+    <n v="36637"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="30111"/>
+    <d v="2017-10-21T00:00:00"/>
+    <n v="16498"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43627"/>
+    <d v="2020-04-18T00:00:00"/>
+    <n v="37968"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="50514"/>
+    <d v="2015-08-06T00:00:00"/>
+    <n v="17681"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="60466"/>
+    <d v="2014-11-11T00:00:00"/>
+    <n v="17012"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43355"/>
+    <d v="2017-05-02T00:00:00"/>
+    <n v="19881"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34592"/>
+    <d v="2023-05-03T00:00:00"/>
+    <n v="29803"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58324"/>
+    <d v="2022-10-11T00:00:00"/>
+    <n v="19170"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72194"/>
+    <d v="2019-02-08T00:00:00"/>
+    <n v="17352"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="52055"/>
+    <d v="2020-01-23T00:00:00"/>
+    <n v="29240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64063"/>
+    <d v="2016-07-06T00:00:00"/>
+    <n v="12142"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="71515"/>
+    <d v="2021-02-17T00:00:00"/>
+    <n v="31876"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="38571"/>
+    <d v="2022-10-08T00:00:00"/>
+    <n v="16927"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58107"/>
+    <d v="2019-03-08T00:00:00"/>
+    <n v="25284"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="61988"/>
+    <d v="2018-12-20T00:00:00"/>
+    <n v="10594"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49014"/>
+    <d v="2018-04-01T00:00:00"/>
+    <n v="13213"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40744"/>
+    <d v="2016-07-07T00:00:00"/>
+    <n v="27273"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58110"/>
+    <d v="2018-07-31T00:00:00"/>
+    <n v="21278"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="75947"/>
+    <d v="2017-02-22T00:00:00"/>
+    <n v="14363"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37978"/>
+    <d v="2023-10-23T00:00:00"/>
+    <n v="32521"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="55541"/>
+    <d v="2015-08-19T00:00:00"/>
+    <n v="16011"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="45508"/>
+    <d v="2019-02-12T00:00:00"/>
+    <n v="16901"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30135"/>
+    <d v="2024-02-06T00:00:00"/>
+    <n v="28340"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="75728"/>
+    <d v="2019-02-22T00:00:00"/>
+    <n v="31020"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="51724"/>
+    <d v="2021-01-11T00:00:00"/>
+    <n v="27123"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="77886"/>
+    <d v="2017-07-04T00:00:00"/>
+    <n v="30080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="35220"/>
+    <d v="2020-09-17T00:00:00"/>
+    <n v="29444"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="51321"/>
+    <d v="2022-02-23T00:00:00"/>
+    <n v="29006"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="61527"/>
+    <d v="2016-04-27T00:00:00"/>
+    <n v="21871"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38684"/>
+    <d v="2018-09-10T00:00:00"/>
+    <n v="37414"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31005"/>
+    <d v="2017-06-27T00:00:00"/>
+    <n v="24340"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44245"/>
+    <d v="2015-10-06T00:00:00"/>
+    <n v="16800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="48296"/>
+    <d v="2017-10-30T00:00:00"/>
+    <n v="33597"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="74413"/>
+    <d v="2014-11-17T00:00:00"/>
+    <n v="14844"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="76940"/>
+    <d v="2023-07-28T00:00:00"/>
+    <n v="27082"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="64523"/>
+    <d v="2021-04-28T00:00:00"/>
+    <n v="35187"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="38871"/>
+    <d v="2017-01-18T00:00:00"/>
+    <n v="32084"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39090"/>
+    <d v="2023-01-21T00:00:00"/>
+    <n v="19756"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="65939"/>
+    <d v="2019-11-07T00:00:00"/>
+    <n v="23065"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="60367"/>
+    <d v="2017-09-26T00:00:00"/>
+    <n v="16439"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44276"/>
+    <d v="2015-04-30T00:00:00"/>
+    <n v="38522"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="50630"/>
+    <d v="2018-12-06T00:00:00"/>
+    <n v="12662"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="44082"/>
+    <d v="2024-06-13T00:00:00"/>
+    <n v="27956"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="46592"/>
+    <d v="2015-01-23T00:00:00"/>
+    <n v="11073"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="59613"/>
+    <d v="2023-10-18T00:00:00"/>
+    <n v="32024"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58254"/>
+    <d v="2019-03-29T00:00:00"/>
+    <n v="24398"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32448"/>
+    <d v="2018-07-09T00:00:00"/>
+    <n v="39487"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="67377"/>
+    <d v="2023-02-14T00:00:00"/>
+    <n v="38185"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="66570"/>
+    <d v="2024-01-12T00:00:00"/>
+    <n v="21575"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="40862"/>
+    <d v="2019-03-05T00:00:00"/>
+    <n v="13911"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="37827"/>
+    <d v="2018-06-23T00:00:00"/>
+    <n v="36655"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="65539"/>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="21102"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43063"/>
+    <d v="2023-05-13T00:00:00"/>
+    <n v="36315"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="76115"/>
+    <d v="2017-12-02T00:00:00"/>
+    <n v="37613"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="79682"/>
+    <d v="2023-10-20T00:00:00"/>
+    <n v="13747"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="62476"/>
+    <d v="2024-04-08T00:00:00"/>
+    <n v="22606"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="74601"/>
+    <d v="2020-03-21T00:00:00"/>
+    <n v="35571"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40856"/>
+    <d v="2016-07-16T00:00:00"/>
+    <n v="27112"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="47261"/>
+    <d v="2016-09-24T00:00:00"/>
+    <n v="31585"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43021"/>
+    <d v="2022-09-12T00:00:00"/>
+    <n v="18918"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43933"/>
+    <d v="2014-08-18T00:00:00"/>
+    <n v="32242"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="41324"/>
+    <d v="2018-04-10T00:00:00"/>
+    <n v="19856"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43941"/>
+    <d v="2020-08-21T00:00:00"/>
+    <n v="28005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72463"/>
+    <d v="2020-01-29T00:00:00"/>
+    <n v="15511"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="33591"/>
+    <d v="2019-05-18T00:00:00"/>
+    <n v="12276"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39047"/>
+    <d v="2022-09-26T00:00:00"/>
+    <n v="28398"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="67255"/>
+    <d v="2017-09-17T00:00:00"/>
+    <n v="27117"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37610"/>
+    <d v="2019-02-04T00:00:00"/>
+    <n v="13505"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72740"/>
+    <d v="2017-01-09T00:00:00"/>
+    <n v="36502"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="70516"/>
+    <d v="2017-10-09T00:00:00"/>
+    <n v="19645"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="54788"/>
+    <d v="2019-01-13T00:00:00"/>
+    <n v="10595"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="32584"/>
+    <d v="2017-12-28T00:00:00"/>
+    <n v="14730"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="56707"/>
+    <d v="2016-03-10T00:00:00"/>
+    <n v="19419"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="73126"/>
+    <d v="2019-12-12T00:00:00"/>
+    <n v="39227"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="57750"/>
+    <d v="2020-01-10T00:00:00"/>
+    <n v="18644"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="62476"/>
+    <d v="2021-11-30T00:00:00"/>
+    <n v="30287"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="53691"/>
+    <d v="2014-12-22T00:00:00"/>
+    <n v="18177"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32296"/>
+    <d v="2017-12-30T00:00:00"/>
+    <n v="36702"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="60772"/>
+    <d v="2020-11-10T00:00:00"/>
+    <n v="37823"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="79060"/>
+    <d v="2024-02-19T00:00:00"/>
+    <n v="12135"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58083"/>
+    <d v="2023-01-17T00:00:00"/>
+    <n v="30782"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="74168"/>
+    <d v="2016-05-18T00:00:00"/>
+    <n v="17297"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="37109"/>
+    <d v="2021-02-21T00:00:00"/>
+    <n v="34181"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="42519"/>
+    <d v="2017-10-14T00:00:00"/>
+    <n v="35171"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="35096"/>
+    <d v="2015-11-16T00:00:00"/>
+    <n v="12270"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="42158"/>
+    <d v="2023-04-24T00:00:00"/>
+    <n v="36938"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="74324"/>
+    <d v="2022-11-01T00:00:00"/>
+    <n v="10779"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43241"/>
+    <d v="2016-03-03T00:00:00"/>
+    <n v="30260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="72907"/>
+    <d v="2017-11-19T00:00:00"/>
+    <n v="34641"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43747"/>
+    <d v="2018-03-30T00:00:00"/>
+    <n v="33232"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="46491"/>
+    <d v="2018-05-14T00:00:00"/>
+    <n v="26996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="47731"/>
+    <d v="2015-04-17T00:00:00"/>
+    <n v="16639"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="69901"/>
+    <d v="2023-05-18T00:00:00"/>
+    <n v="37582"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="78937"/>
+    <d v="2022-05-10T00:00:00"/>
+    <n v="12146"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="74925"/>
+    <d v="2017-08-24T00:00:00"/>
+    <n v="24266"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="58486"/>
+    <d v="2024-06-10T00:00:00"/>
+    <n v="34805"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="64296"/>
+    <d v="2020-03-25T00:00:00"/>
+    <n v="14122"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45459"/>
+    <d v="2021-06-16T00:00:00"/>
+    <n v="14152"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="48643"/>
+    <d v="2020-04-22T00:00:00"/>
+    <n v="37173"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30655"/>
+    <d v="2020-03-21T00:00:00"/>
+    <n v="11775"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40055"/>
+    <d v="2022-07-24T00:00:00"/>
+    <n v="34271"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="61996"/>
+    <d v="2014-08-31T00:00:00"/>
+    <n v="27635"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="74165"/>
+    <d v="2017-05-07T00:00:00"/>
+    <n v="26800"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="70831"/>
+    <d v="2020-09-03T00:00:00"/>
+    <n v="16156"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64877"/>
+    <d v="2023-08-21T00:00:00"/>
+    <n v="10425"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="68905"/>
+    <d v="2019-02-18T00:00:00"/>
+    <n v="32750"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="61268"/>
+    <d v="2019-07-27T00:00:00"/>
+    <n v="21569"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45143"/>
+    <d v="2014-07-23T00:00:00"/>
+    <n v="18063"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64181"/>
+    <d v="2022-09-30T00:00:00"/>
+    <n v="34507"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58898"/>
+    <d v="2015-03-22T00:00:00"/>
+    <n v="38150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="67654"/>
+    <d v="2015-04-19T00:00:00"/>
+    <n v="39106"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="60860"/>
+    <d v="2014-12-13T00:00:00"/>
+    <n v="37379"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="61305"/>
+    <d v="2022-04-28T00:00:00"/>
+    <n v="24748"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="65012"/>
+    <d v="2017-04-17T00:00:00"/>
+    <n v="13558"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="77402"/>
+    <d v="2022-07-11T00:00:00"/>
+    <n v="14394"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="48827"/>
+    <d v="2020-07-31T00:00:00"/>
+    <n v="23493"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="39475"/>
+    <d v="2020-05-07T00:00:00"/>
+    <n v="32807"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="33511"/>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="39643"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="53198"/>
+    <d v="2018-05-14T00:00:00"/>
+    <n v="18370"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="78013"/>
+    <d v="2024-07-10T00:00:00"/>
+    <n v="20000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58229"/>
+    <d v="2019-09-07T00:00:00"/>
+    <n v="35960"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="43487"/>
+    <d v="2016-01-23T00:00:00"/>
+    <n v="31341"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="66075"/>
+    <d v="2017-05-17T00:00:00"/>
+    <n v="13992"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="75366"/>
+    <d v="2016-09-10T00:00:00"/>
+    <n v="36286"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39006"/>
+    <d v="2019-07-15T00:00:00"/>
+    <n v="39466"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="51182"/>
+    <d v="2023-09-18T00:00:00"/>
+    <n v="10283"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="67044"/>
+    <d v="2015-10-14T00:00:00"/>
+    <n v="36781"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64841"/>
+    <d v="2021-07-06T00:00:00"/>
+    <n v="35393"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72477"/>
+    <d v="2021-07-07T00:00:00"/>
+    <n v="10726"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35473"/>
+    <d v="2023-05-06T00:00:00"/>
+    <n v="22612"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="35951"/>
+    <d v="2016-03-08T00:00:00"/>
+    <n v="17614"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="44599"/>
+    <d v="2020-04-24T00:00:00"/>
+    <n v="12888"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="34957"/>
+    <d v="2020-07-24T00:00:00"/>
+    <n v="33112"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="42559"/>
+    <d v="2020-09-16T00:00:00"/>
+    <n v="20838"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="56023"/>
+    <d v="2017-06-27T00:00:00"/>
+    <n v="18735"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="44123"/>
+    <d v="2018-05-27T00:00:00"/>
+    <n v="39503"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31425"/>
+    <d v="2020-12-24T00:00:00"/>
+    <n v="15952"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="77111"/>
+    <d v="2021-02-14T00:00:00"/>
+    <n v="13838"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49236"/>
+    <d v="2018-12-12T00:00:00"/>
+    <n v="16487"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="73975"/>
+    <d v="2015-12-07T00:00:00"/>
+    <n v="27092"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="56023"/>
+    <d v="2018-04-27T00:00:00"/>
+    <n v="12903"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41548"/>
+    <d v="2020-10-11T00:00:00"/>
+    <n v="37035"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="78838"/>
+    <d v="2017-12-02T00:00:00"/>
+    <n v="14615"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="37488"/>
+    <d v="2018-04-09T00:00:00"/>
+    <n v="29838"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37793"/>
+    <d v="2023-12-26T00:00:00"/>
+    <n v="17507"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="57691"/>
+    <d v="2020-03-24T00:00:00"/>
+    <n v="29163"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="44070"/>
+    <d v="2022-04-01T00:00:00"/>
+    <n v="24662"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="70986"/>
+    <d v="2018-12-27T00:00:00"/>
+    <n v="10263"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="36513"/>
+    <d v="2020-01-05T00:00:00"/>
+    <n v="22041"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="35073"/>
+    <d v="2014-07-26T00:00:00"/>
+    <n v="15778"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="62437"/>
+    <d v="2021-01-01T00:00:00"/>
+    <n v="20588"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="33873"/>
+    <d v="2016-03-02T00:00:00"/>
+    <n v="32158"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="72959"/>
+    <d v="2017-11-04T00:00:00"/>
+    <n v="17883"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="66546"/>
+    <d v="2021-12-07T00:00:00"/>
+    <n v="26898"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5C50C57-0936-417A-A6F9-C3EFABC13AE1}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3227,8 +5956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O19" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13861,4 +16590,244 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872A4F3-420A-46AB-A3D2-E35F9B02B35B}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1272485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="19">
+        <v>260343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19">
+        <v>280074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19">
+        <v>316383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="19">
+        <v>191963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19">
+        <v>223722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1265126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19">
+        <v>256438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19">
+        <v>260348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="19">
+        <v>324020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19">
+        <v>254405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19">
+        <v>169915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1286671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19">
+        <v>276590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="19">
+        <v>254879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="19">
+        <v>253811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19">
+        <v>340501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19">
+        <v>160890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1097791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>254509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19">
+        <v>223179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="19">
+        <v>289699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19">
+        <v>131507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="19">
+        <v>198897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19">
+        <v>4922073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>